--- a/Lexis-GLOBAL/Coredata/TOKEN_VALIDATION.xlsx
+++ b/Lexis-GLOBAL/Coredata/TOKEN_VALIDATION.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25028"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adapp\git\AutoAPI\Lexis-GLOBAL\Coredata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD8364D1-2236-4806-BCEC-98AB396433AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01F83128-CAEC-4A4D-989E-CC1F4F74470A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Login_Valid" sheetId="2" r:id="rId1"/>
@@ -450,7 +450,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -463,6 +463,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -762,9 +765,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{523F375F-4C48-4077-B238-B31ACB5C90EB}">
   <dimension ref="A1:T7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B2" sqref="B2:B7"/>
+      <selection pane="bottomLeft" activeCell="S3" sqref="S3:S7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -857,7 +860,7 @@
       <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="7" t="s">
         <v>101</v>
       </c>
       <c r="C2" s="1" t="s">
@@ -917,7 +920,7 @@
       <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" s="7"/>
+      <c r="B3" s="8"/>
       <c r="C3" s="1" t="s">
         <v>9</v>
       </c>
@@ -966,7 +969,7 @@
       <c r="R3" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="S3" s="1" t="s">
+      <c r="S3" s="6" t="s">
         <v>14</v>
       </c>
       <c r="T3" s="3"/>
@@ -975,7 +978,7 @@
       <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4" s="7"/>
+      <c r="B4" s="8"/>
       <c r="C4" s="1" t="s">
         <v>9</v>
       </c>
@@ -1024,7 +1027,7 @@
       <c r="R4" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="S4" s="1" t="s">
+      <c r="S4" s="6" t="s">
         <v>14</v>
       </c>
       <c r="T4" s="3"/>
@@ -1033,7 +1036,7 @@
       <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B5" s="7"/>
+      <c r="B5" s="8"/>
       <c r="C5" s="1" t="s">
         <v>9</v>
       </c>
@@ -1082,7 +1085,7 @@
       <c r="R5" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="S5" s="1" t="s">
+      <c r="S5" s="6" t="s">
         <v>14</v>
       </c>
       <c r="T5" s="3"/>
@@ -1091,7 +1094,7 @@
       <c r="A6" s="1">
         <v>5</v>
       </c>
-      <c r="B6" s="7"/>
+      <c r="B6" s="8"/>
       <c r="C6" s="1" t="s">
         <v>9</v>
       </c>
@@ -1140,7 +1143,7 @@
       <c r="R6" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="S6" s="1" t="s">
+      <c r="S6" s="6" t="s">
         <v>14</v>
       </c>
       <c r="T6" s="3"/>
@@ -1149,7 +1152,7 @@
       <c r="A7" s="1">
         <v>6</v>
       </c>
-      <c r="B7" s="8"/>
+      <c r="B7" s="9"/>
       <c r="C7" s="1" t="s">
         <v>9</v>
       </c>
@@ -1198,7 +1201,7 @@
       <c r="R7" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="S7" s="1" t="s">
+      <c r="S7" s="6" t="s">
         <v>14</v>
       </c>
       <c r="T7" s="3"/>
@@ -1215,8 +1218,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16DB80FE-A7B5-4644-A6E4-F03F1954FE52}">
   <dimension ref="A1:T37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32:B37"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="T5" sqref="T5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1237,7 +1240,7 @@
     <col min="16" max="16" width="10.7265625" hidden="1" customWidth="1"/>
     <col min="17" max="17" width="32.08984375" customWidth="1"/>
     <col min="18" max="18" width="29.54296875" customWidth="1"/>
-    <col min="20" max="20" width="9.54296875" customWidth="1"/>
+    <col min="20" max="20" width="11.7265625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.35">
@@ -1306,7 +1309,7 @@
       <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="10" t="s">
         <v>95</v>
       </c>
       <c r="C2" s="1" t="s">
@@ -1366,7 +1369,7 @@
       <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" s="10"/>
+      <c r="B3" s="11"/>
       <c r="C3" s="1" t="s">
         <v>9</v>
       </c>
@@ -1424,7 +1427,7 @@
       <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4" s="10"/>
+      <c r="B4" s="11"/>
       <c r="C4" s="1" t="s">
         <v>9</v>
       </c>
@@ -1482,7 +1485,7 @@
       <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B5" s="10"/>
+      <c r="B5" s="11"/>
       <c r="C5" s="1" t="s">
         <v>9</v>
       </c>
@@ -1540,7 +1543,7 @@
       <c r="A6" s="1">
         <v>5</v>
       </c>
-      <c r="B6" s="10"/>
+      <c r="B6" s="11"/>
       <c r="C6" s="1" t="s">
         <v>9</v>
       </c>
@@ -1598,7 +1601,7 @@
       <c r="A7" s="1">
         <v>6</v>
       </c>
-      <c r="B7" s="10"/>
+      <c r="B7" s="11"/>
       <c r="C7" s="1" t="s">
         <v>9</v>
       </c>
@@ -1656,7 +1659,7 @@
       <c r="A8" s="1">
         <v>7</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="10" t="s">
         <v>96</v>
       </c>
       <c r="C8" s="1" t="s">
@@ -1707,7 +1710,7 @@
       <c r="R8" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="S8" s="1" t="s">
+      <c r="S8" s="6" t="s">
         <v>14</v>
       </c>
       <c r="T8" s="2"/>
@@ -1716,7 +1719,7 @@
       <c r="A9" s="1">
         <v>8</v>
       </c>
-      <c r="B9" s="10"/>
+      <c r="B9" s="11"/>
       <c r="C9" s="1" t="s">
         <v>9</v>
       </c>
@@ -1765,7 +1768,7 @@
       <c r="R9" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="S9" s="1" t="s">
+      <c r="S9" s="6" t="s">
         <v>14</v>
       </c>
       <c r="T9" s="2"/>
@@ -1774,7 +1777,7 @@
       <c r="A10" s="1">
         <v>9</v>
       </c>
-      <c r="B10" s="10"/>
+      <c r="B10" s="11"/>
       <c r="C10" s="1" t="s">
         <v>9</v>
       </c>
@@ -1823,7 +1826,7 @@
       <c r="R10" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="S10" s="1" t="s">
+      <c r="S10" s="6" t="s">
         <v>14</v>
       </c>
       <c r="T10" s="2"/>
@@ -1832,7 +1835,7 @@
       <c r="A11" s="1">
         <v>10</v>
       </c>
-      <c r="B11" s="10"/>
+      <c r="B11" s="11"/>
       <c r="C11" s="1" t="s">
         <v>9</v>
       </c>
@@ -1881,7 +1884,7 @@
       <c r="R11" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="S11" s="1" t="s">
+      <c r="S11" s="6" t="s">
         <v>14</v>
       </c>
       <c r="T11" s="2"/>
@@ -1890,7 +1893,7 @@
       <c r="A12" s="1">
         <v>11</v>
       </c>
-      <c r="B12" s="10"/>
+      <c r="B12" s="11"/>
       <c r="C12" s="1" t="s">
         <v>9</v>
       </c>
@@ -1939,7 +1942,7 @@
       <c r="R12" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="S12" s="1" t="s">
+      <c r="S12" s="6" t="s">
         <v>14</v>
       </c>
       <c r="T12" s="2"/>
@@ -1948,7 +1951,7 @@
       <c r="A13" s="1">
         <v>12</v>
       </c>
-      <c r="B13" s="10"/>
+      <c r="B13" s="11"/>
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1997,7 +2000,7 @@
       <c r="R13" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="S13" s="1" t="s">
+      <c r="S13" s="6" t="s">
         <v>14</v>
       </c>
       <c r="T13" s="2"/>
@@ -2006,7 +2009,7 @@
       <c r="A14" s="1">
         <v>13</v>
       </c>
-      <c r="B14" s="9" t="s">
+      <c r="B14" s="10" t="s">
         <v>97</v>
       </c>
       <c r="C14" s="1" t="s">
@@ -2057,7 +2060,7 @@
       <c r="R14" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="S14" s="1" t="s">
+      <c r="S14" s="6" t="s">
         <v>14</v>
       </c>
       <c r="T14" s="2"/>
@@ -2066,7 +2069,7 @@
       <c r="A15" s="1">
         <v>14</v>
       </c>
-      <c r="B15" s="10"/>
+      <c r="B15" s="11"/>
       <c r="C15" s="1" t="s">
         <v>9</v>
       </c>
@@ -2115,7 +2118,7 @@
       <c r="R15" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="S15" s="1" t="s">
+      <c r="S15" s="6" t="s">
         <v>14</v>
       </c>
       <c r="T15" s="2"/>
@@ -2124,7 +2127,7 @@
       <c r="A16" s="1">
         <v>15</v>
       </c>
-      <c r="B16" s="10"/>
+      <c r="B16" s="11"/>
       <c r="C16" s="1" t="s">
         <v>9</v>
       </c>
@@ -2173,7 +2176,7 @@
       <c r="R16" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="S16" s="1" t="s">
+      <c r="S16" s="6" t="s">
         <v>14</v>
       </c>
       <c r="T16" s="2"/>
@@ -2182,7 +2185,7 @@
       <c r="A17" s="1">
         <v>16</v>
       </c>
-      <c r="B17" s="10"/>
+      <c r="B17" s="11"/>
       <c r="C17" s="1" t="s">
         <v>9</v>
       </c>
@@ -2231,7 +2234,7 @@
       <c r="R17" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="S17" s="1" t="s">
+      <c r="S17" s="6" t="s">
         <v>14</v>
       </c>
       <c r="T17" s="2"/>
@@ -2240,7 +2243,7 @@
       <c r="A18" s="1">
         <v>17</v>
       </c>
-      <c r="B18" s="10"/>
+      <c r="B18" s="11"/>
       <c r="C18" s="1" t="s">
         <v>9</v>
       </c>
@@ -2289,7 +2292,7 @@
       <c r="R18" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="S18" s="1" t="s">
+      <c r="S18" s="6" t="s">
         <v>14</v>
       </c>
       <c r="T18" s="2"/>
@@ -2298,7 +2301,7 @@
       <c r="A19" s="1">
         <v>18</v>
       </c>
-      <c r="B19" s="10"/>
+      <c r="B19" s="11"/>
       <c r="C19" s="1" t="s">
         <v>9</v>
       </c>
@@ -2347,7 +2350,7 @@
       <c r="R19" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="S19" s="1" t="s">
+      <c r="S19" s="6" t="s">
         <v>14</v>
       </c>
       <c r="T19" s="2"/>
@@ -2356,7 +2359,7 @@
       <c r="A20" s="1">
         <v>19</v>
       </c>
-      <c r="B20" s="9" t="s">
+      <c r="B20" s="10" t="s">
         <v>98</v>
       </c>
       <c r="C20" s="1" t="s">
@@ -2407,7 +2410,7 @@
       <c r="R20" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="S20" s="1" t="s">
+      <c r="S20" s="6" t="s">
         <v>14</v>
       </c>
       <c r="T20" s="2"/>
@@ -2416,7 +2419,7 @@
       <c r="A21" s="1">
         <v>20</v>
       </c>
-      <c r="B21" s="10"/>
+      <c r="B21" s="11"/>
       <c r="C21" s="1" t="s">
         <v>9</v>
       </c>
@@ -2465,7 +2468,7 @@
       <c r="R21" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="S21" s="1" t="s">
+      <c r="S21" s="6" t="s">
         <v>14</v>
       </c>
       <c r="T21" s="2"/>
@@ -2474,7 +2477,7 @@
       <c r="A22" s="1">
         <v>21</v>
       </c>
-      <c r="B22" s="10"/>
+      <c r="B22" s="11"/>
       <c r="C22" s="1" t="s">
         <v>9</v>
       </c>
@@ -2523,7 +2526,7 @@
       <c r="R22" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="S22" s="1" t="s">
+      <c r="S22" s="6" t="s">
         <v>14</v>
       </c>
       <c r="T22" s="2"/>
@@ -2532,7 +2535,7 @@
       <c r="A23" s="1">
         <v>22</v>
       </c>
-      <c r="B23" s="10"/>
+      <c r="B23" s="11"/>
       <c r="C23" s="1" t="s">
         <v>9</v>
       </c>
@@ -2581,7 +2584,7 @@
       <c r="R23" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="S23" s="1" t="s">
+      <c r="S23" s="6" t="s">
         <v>14</v>
       </c>
       <c r="T23" s="2"/>
@@ -2590,7 +2593,7 @@
       <c r="A24" s="1">
         <v>23</v>
       </c>
-      <c r="B24" s="10"/>
+      <c r="B24" s="11"/>
       <c r="C24" s="1" t="s">
         <v>9</v>
       </c>
@@ -2639,7 +2642,7 @@
       <c r="R24" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="S24" s="1" t="s">
+      <c r="S24" s="6" t="s">
         <v>14</v>
       </c>
       <c r="T24" s="2"/>
@@ -2648,7 +2651,7 @@
       <c r="A25" s="1">
         <v>24</v>
       </c>
-      <c r="B25" s="10"/>
+      <c r="B25" s="11"/>
       <c r="C25" s="1" t="s">
         <v>9</v>
       </c>
@@ -2697,7 +2700,7 @@
       <c r="R25" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="S25" s="1" t="s">
+      <c r="S25" s="6" t="s">
         <v>14</v>
       </c>
       <c r="T25" s="2"/>
@@ -2706,7 +2709,7 @@
       <c r="A26" s="1">
         <v>25</v>
       </c>
-      <c r="B26" s="9" t="s">
+      <c r="B26" s="10" t="s">
         <v>99</v>
       </c>
       <c r="C26" s="1" t="s">
@@ -2757,7 +2760,7 @@
       <c r="R26" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="S26" s="1" t="s">
+      <c r="S26" s="6" t="s">
         <v>14</v>
       </c>
       <c r="T26" s="2"/>
@@ -2766,7 +2769,7 @@
       <c r="A27" s="1">
         <v>26</v>
       </c>
-      <c r="B27" s="10"/>
+      <c r="B27" s="11"/>
       <c r="C27" s="1" t="s">
         <v>9</v>
       </c>
@@ -2815,7 +2818,7 @@
       <c r="R27" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="S27" s="1" t="s">
+      <c r="S27" s="6" t="s">
         <v>14</v>
       </c>
       <c r="T27" s="2"/>
@@ -2824,7 +2827,7 @@
       <c r="A28" s="1">
         <v>27</v>
       </c>
-      <c r="B28" s="10"/>
+      <c r="B28" s="11"/>
       <c r="C28" s="1" t="s">
         <v>9</v>
       </c>
@@ -2873,7 +2876,7 @@
       <c r="R28" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="S28" s="1" t="s">
+      <c r="S28" s="6" t="s">
         <v>14</v>
       </c>
       <c r="T28" s="2"/>
@@ -2882,7 +2885,7 @@
       <c r="A29" s="1">
         <v>28</v>
       </c>
-      <c r="B29" s="10"/>
+      <c r="B29" s="11"/>
       <c r="C29" s="1" t="s">
         <v>9</v>
       </c>
@@ -2931,7 +2934,7 @@
       <c r="R29" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="S29" s="1" t="s">
+      <c r="S29" s="6" t="s">
         <v>14</v>
       </c>
       <c r="T29" s="2"/>
@@ -2940,7 +2943,7 @@
       <c r="A30" s="1">
         <v>29</v>
       </c>
-      <c r="B30" s="10"/>
+      <c r="B30" s="11"/>
       <c r="C30" s="1" t="s">
         <v>9</v>
       </c>
@@ -2989,7 +2992,7 @@
       <c r="R30" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="S30" s="1" t="s">
+      <c r="S30" s="6" t="s">
         <v>14</v>
       </c>
       <c r="T30" s="2"/>
@@ -2998,7 +3001,7 @@
       <c r="A31" s="1">
         <v>30</v>
       </c>
-      <c r="B31" s="10"/>
+      <c r="B31" s="11"/>
       <c r="C31" s="1" t="s">
         <v>9</v>
       </c>
@@ -3047,7 +3050,7 @@
       <c r="R31" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="S31" s="1" t="s">
+      <c r="S31" s="6" t="s">
         <v>14</v>
       </c>
       <c r="T31" s="2"/>
@@ -3056,7 +3059,7 @@
       <c r="A32" s="1">
         <v>31</v>
       </c>
-      <c r="B32" s="9" t="s">
+      <c r="B32" s="10" t="s">
         <v>100</v>
       </c>
       <c r="C32" s="1" t="s">
@@ -3107,7 +3110,7 @@
       <c r="R32" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="S32" s="1" t="s">
+      <c r="S32" s="6" t="s">
         <v>14</v>
       </c>
       <c r="T32" s="2"/>
@@ -3116,7 +3119,7 @@
       <c r="A33" s="1">
         <v>32</v>
       </c>
-      <c r="B33" s="10"/>
+      <c r="B33" s="11"/>
       <c r="C33" s="1" t="s">
         <v>9</v>
       </c>
@@ -3165,7 +3168,7 @@
       <c r="R33" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="S33" s="1" t="s">
+      <c r="S33" s="6" t="s">
         <v>14</v>
       </c>
       <c r="T33" s="2"/>
@@ -3174,7 +3177,7 @@
       <c r="A34" s="1">
         <v>33</v>
       </c>
-      <c r="B34" s="10"/>
+      <c r="B34" s="11"/>
       <c r="C34" s="1" t="s">
         <v>9</v>
       </c>
@@ -3223,7 +3226,7 @@
       <c r="R34" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="S34" s="1" t="s">
+      <c r="S34" s="6" t="s">
         <v>14</v>
       </c>
       <c r="T34" s="2"/>
@@ -3232,7 +3235,7 @@
       <c r="A35" s="1">
         <v>34</v>
       </c>
-      <c r="B35" s="10"/>
+      <c r="B35" s="11"/>
       <c r="C35" s="1" t="s">
         <v>9</v>
       </c>
@@ -3281,7 +3284,7 @@
       <c r="R35" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="S35" s="1" t="s">
+      <c r="S35" s="6" t="s">
         <v>14</v>
       </c>
       <c r="T35" s="2"/>
@@ -3290,7 +3293,7 @@
       <c r="A36" s="1">
         <v>35</v>
       </c>
-      <c r="B36" s="10"/>
+      <c r="B36" s="11"/>
       <c r="C36" s="1" t="s">
         <v>9</v>
       </c>
@@ -3339,7 +3342,7 @@
       <c r="R36" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="S36" s="1" t="s">
+      <c r="S36" s="6" t="s">
         <v>14</v>
       </c>
       <c r="T36" s="2"/>
@@ -3348,7 +3351,7 @@
       <c r="A37" s="1">
         <v>36</v>
       </c>
-      <c r="B37" s="10"/>
+      <c r="B37" s="11"/>
       <c r="C37" s="1" t="s">
         <v>9</v>
       </c>
@@ -3397,7 +3400,7 @@
       <c r="R37" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="S37" s="1" t="s">
+      <c r="S37" s="6" t="s">
         <v>14</v>
       </c>
       <c r="T37" s="2"/>

--- a/Lexis-GLOBAL/Coredata/TOKEN_VALIDATION.xlsx
+++ b/Lexis-GLOBAL/Coredata/TOKEN_VALIDATION.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adapp\git\AutoAPI\Lexis-GLOBAL\Coredata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01F83128-CAEC-4A4D-989E-CC1F4F74470A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70EC9765-1D3A-4813-8EC4-2AEEB4735D0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -767,7 +767,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="S3" sqref="S3:S7"/>
+      <selection pane="bottomLeft" activeCell="S13" sqref="S13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
